--- a/spot_genre_afeat.xlsx
+++ b/spot_genre_afeat.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GYOKU\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Spotify Audio Features by Genre" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>popularity</t>
+  </si>
   <si>
     <t>danceability</t>
   </si>
@@ -36,25 +37,22 @@
     <t>loudness</t>
   </si>
   <si>
-    <t>Genre</t>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>r&amp;b</t>
   </si>
   <si>
     <t>edm</t>
   </si>
   <si>
-    <t>hiphop</t>
+    <t>rap</t>
   </si>
   <si>
     <t>latin</t>
   </si>
   <si>
     <t>pop</t>
-  </si>
-  <si>
-    <t>r&amp;b</t>
-  </si>
-  <si>
-    <t>rap</t>
   </si>
   <si>
     <t>rock</t>
@@ -63,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +125,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -181,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,10 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,26 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,145 +435,193 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>20554</v>
+      </c>
+      <c r="D2">
+        <v>315.466</v>
+      </c>
+      <c r="E2">
+        <v>96.8319</v>
+      </c>
+      <c r="F2">
+        <v>66.678686</v>
+      </c>
+      <c r="G2">
+        <v>91.3822</v>
+      </c>
+      <c r="H2">
+        <v>3403.182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>25079</v>
+      </c>
+      <c r="D3">
+        <v>324.619</v>
+      </c>
+      <c r="E3">
+        <v>45.1794</v>
+      </c>
+      <c r="F3">
+        <v>110.860179</v>
+      </c>
+      <c r="G3">
+        <v>75.2299</v>
+      </c>
+      <c r="H3">
+        <v>3703.748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>49799</v>
+      </c>
+      <c r="D4">
         <v>565.745</v>
       </c>
-      <c r="C2">
-        <v>71.770700000000005</v>
-      </c>
-      <c r="D2">
-        <v>65.036648700000001</v>
-      </c>
-      <c r="E2">
+      <c r="E4">
+        <v>71.77070000000001</v>
+      </c>
+      <c r="F4">
+        <v>65.0366487</v>
+      </c>
+      <c r="G4">
         <v>180.1764</v>
       </c>
-      <c r="F2">
-        <v>-4495.1499999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>315.46600000000001</v>
-      </c>
-      <c r="C3">
-        <v>96.831900000000005</v>
-      </c>
-      <c r="D3">
-        <v>66.678685999999999</v>
-      </c>
-      <c r="E3">
-        <v>91.382199999999997</v>
-      </c>
-      <c r="F3">
-        <v>-3403.1819999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>719.56899999999996</v>
-      </c>
-      <c r="C4">
-        <v>81.102800000000002</v>
-      </c>
-      <c r="D4">
+      <c r="H4">
+        <v>4495.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>57630</v>
+      </c>
+      <c r="D5">
+        <v>693.52</v>
+      </c>
+      <c r="E5">
+        <v>179.4326</v>
+      </c>
+      <c r="F5">
+        <v>120.539137</v>
+      </c>
+      <c r="G5">
+        <v>180.7861</v>
+      </c>
+      <c r="H5">
+        <v>6310.958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>58887</v>
+      </c>
+      <c r="D6">
+        <v>719.569</v>
+      </c>
+      <c r="E6">
+        <v>81.1028</v>
+      </c>
+      <c r="F6">
         <v>277.403614</v>
       </c>
-      <c r="E4">
-        <v>177.55609999999999</v>
-      </c>
-      <c r="F4">
-        <v>-6295.2610000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>600.54399999999998</v>
-      </c>
-      <c r="C5">
-        <v>71.248800000000003</v>
-      </c>
-      <c r="D5">
+      <c r="G6">
+        <v>177.5561</v>
+      </c>
+      <c r="H6">
+        <v>6295.261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>63527</v>
+      </c>
+      <c r="D7">
+        <v>600.544</v>
+      </c>
+      <c r="E7">
+        <v>71.2488</v>
+      </c>
+      <c r="F7">
         <v>248.5723811</v>
       </c>
-      <c r="E5">
-        <v>147.77780000000001</v>
-      </c>
-      <c r="F5">
-        <v>-6029.232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>324.61900000000003</v>
-      </c>
-      <c r="C6">
-        <v>45.179400000000001</v>
-      </c>
-      <c r="D6">
-        <v>110.860179</v>
-      </c>
-      <c r="E6">
-        <v>75.229900000000001</v>
-      </c>
-      <c r="F6">
-        <v>-3703.748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>693.52</v>
-      </c>
-      <c r="C7">
-        <v>179.43260000000001</v>
-      </c>
-      <c r="D7">
-        <v>120.539137</v>
-      </c>
-      <c r="E7">
-        <v>180.7861</v>
-      </c>
-      <c r="F7">
-        <v>-6310.9579999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>579.39200000000005</v>
+      <c r="G7">
+        <v>147.7778</v>
+      </c>
+      <c r="H7">
+        <v>6029.232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8">
+        <v>71846</v>
+      </c>
+      <c r="D8">
+        <v>579.3920000000001</v>
+      </c>
+      <c r="E8">
         <v>61.05</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>159.99700786</v>
       </c>
-      <c r="E8">
-        <v>213.91579999999999</v>
-      </c>
-      <c r="F8">
-        <v>-8814.625</v>
+      <c r="G8">
+        <v>213.9158</v>
+      </c>
+      <c r="H8">
+        <v>8814.625</v>
       </c>
     </row>
   </sheetData>
